--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3535.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3535.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.281239192852734</v>
+        <v>1.088048696517944</v>
       </c>
       <c r="B1">
-        <v>2.569431449607466</v>
+        <v>1.168573975563049</v>
       </c>
       <c r="C1">
-        <v>2.726560122605017</v>
+        <v>1.120832324028015</v>
       </c>
       <c r="D1">
-        <v>2.631370955395114</v>
+        <v>1.33975076675415</v>
       </c>
       <c r="E1">
-        <v>0.8011530940728484</v>
+        <v>1.253533124923706</v>
       </c>
     </row>
   </sheetData>
